--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2001 (F01).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2001 (F01).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,231 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carnophage</t>
+          <t>('Carnophage', ['{B}', 'Creature — Zombie', 'At the beginning of your upkeep, tap Carnophage unless you pay 1 life.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{B}</t>
+          <t>('Fireblast', ['{4}{R}{R}', 'Instant', 'You may sacrifice two Mountains rather than pay this spell’s mana cost.', 'Fireblast deals 4 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Zombie</t>
+          <t>('Impulse', ['{1}{U}', 'Instant', 'Look at the top four cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>At the beginning of your upkeep, tap Carnophage unless you pay 1 life.</t>
+          <t>('Jackal Pup', ['{R}', 'Creature — Jackal', 'Whenever Jackal Pup is dealt damage, it deals that much damage to you.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Ophidian', ['{2}{U}', 'Creature — Snake', 'Whenever Ophidian attacks and isn’t blocked, you may draw a card. If you do, Ophidian assigns no combat damage this turn.', '1/3'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fireblast</t>
+          <t>('Quirion Ranger', ['{G}', 'Creature — Elf', 'Return a Forest you control to its owner’s hand: Untap target creature. Activate this ability only once each turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>You may sacrifice two Mountains rather than pay this spell’s mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Fireblast deals 4 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Impulse</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Look at the top four cards of your library. Put one of them into your hand and the rest on the bottom of your library in any order.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Jackal Pup</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Jackal</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever Jackal Pup is dealt damage, it deals that much damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ophidian</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creature — Snake</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Whenever Ophidian attacks and isn’t blocked, you may draw a card. If you do, Ophidian assigns no combat damage this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Quirion Ranger</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Return a Forest you control to its owner’s hand: Untap target creature. Activate this ability only once each turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Swords to Plowshares</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Exile target creature. Its controller gains life equal to its power.</t>
+          <t>('Swords to Plowshares', ['{W}', 'Instant', 'Exile target creature. Its controller gains life equal to its power.'])</t>
         </is>
       </c>
     </row>
